--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
@@ -549,10 +549,10 @@
         <v>5.064119</v>
       </c>
       <c r="I2">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J2">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.568057</v>
+        <v>20.79761</v>
       </c>
       <c r="N2">
-        <v>53.136114</v>
+        <v>41.59522</v>
       </c>
       <c r="O2">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="P2">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
       <c r="Q2">
-        <v>44.847934082261</v>
+        <v>35.10719065186333</v>
       </c>
       <c r="R2">
-        <v>269.087604493566</v>
+        <v>210.64314391118</v>
       </c>
       <c r="S2">
-        <v>0.1492368528808422</v>
+        <v>0.109313544311571</v>
       </c>
       <c r="T2">
-        <v>0.1084044282327923</v>
+        <v>0.07744529154851988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>5.064119</v>
       </c>
       <c r="I3">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J3">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.56641266666667</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N3">
-        <v>40.699238</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O3">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="P3">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
       <c r="Q3">
         <v>22.90064271570244</v>
@@ -641,10 +641,10 @@
         <v>206.105784441322</v>
       </c>
       <c r="S3">
-        <v>0.07620462163477472</v>
+        <v>0.07130591698693863</v>
       </c>
       <c r="T3">
-        <v>0.08303161998072224</v>
+        <v>0.0757770809413341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>5.064119</v>
       </c>
       <c r="I4">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J4">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.790493</v>
+        <v>49.80229833333333</v>
       </c>
       <c r="N4">
-        <v>119.371479</v>
+        <v>149.406895</v>
       </c>
       <c r="O4">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="P4">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
       <c r="Q4">
-        <v>67.16793054022233</v>
+        <v>84.06825507783388</v>
       </c>
       <c r="R4">
-        <v>604.5113748620009</v>
+        <v>756.614295700505</v>
       </c>
       <c r="S4">
-        <v>0.223509304797757</v>
+        <v>0.2617640077719946</v>
       </c>
       <c r="T4">
-        <v>0.2435329939313548</v>
+        <v>0.2781776498028883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>5.064119</v>
       </c>
       <c r="I5">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J5">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.470196</v>
+        <v>9.34483</v>
       </c>
       <c r="N5">
-        <v>20.940392</v>
+        <v>18.68966</v>
       </c>
       <c r="O5">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="P5">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
       <c r="Q5">
-        <v>17.67410616577467</v>
+        <v>15.77444371825667</v>
       </c>
       <c r="R5">
-        <v>106.044636994648</v>
+        <v>94.64666230953999</v>
       </c>
       <c r="S5">
-        <v>0.05881269752189942</v>
+        <v>0.04911701336303056</v>
       </c>
       <c r="T5">
-        <v>0.04272106202065395</v>
+        <v>0.03479789667280784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>5.064119</v>
       </c>
       <c r="I6">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J6">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.009171</v>
+        <v>37.76134866666666</v>
       </c>
       <c r="N6">
-        <v>54.02751300000001</v>
+        <v>113.284046</v>
       </c>
       <c r="O6">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="P6">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
       <c r="Q6">
-        <v>30.400195011783</v>
+        <v>63.74265441616377</v>
       </c>
       <c r="R6">
-        <v>273.601755106047</v>
+        <v>573.6838897454739</v>
       </c>
       <c r="S6">
-        <v>0.1011602769082034</v>
+        <v>0.1984760201166552</v>
       </c>
       <c r="T6">
-        <v>0.1102229955243764</v>
+        <v>0.2109212541793489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>5.064119</v>
       </c>
       <c r="I7">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264373</v>
       </c>
       <c r="J7">
-        <v>0.843449801842255</v>
+        <v>0.8950246002264374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.75176099999999</v>
+        <v>39.011729</v>
       </c>
       <c r="N7">
-        <v>125.255283</v>
+        <v>117.035187</v>
       </c>
       <c r="O7">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="P7">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
       <c r="Q7">
-        <v>70.47862872118633</v>
+        <v>65.85334601725033</v>
       </c>
       <c r="R7">
-        <v>634.3076584906769</v>
+        <v>592.680114155253</v>
       </c>
       <c r="S7">
-        <v>0.2345260480987784</v>
+        <v>0.2050480976762474</v>
       </c>
       <c r="T7">
-        <v>0.2555367021523552</v>
+        <v>0.2179054270815383</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H8">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I8">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J8">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.568057</v>
+        <v>20.79761</v>
       </c>
       <c r="N8">
-        <v>53.136114</v>
+        <v>41.59522</v>
       </c>
       <c r="O8">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="P8">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
       <c r="Q8">
-        <v>5.548729848431</v>
+        <v>3.64900306733</v>
       </c>
       <c r="R8">
-        <v>33.292379090586</v>
+        <v>21.89401840398</v>
       </c>
       <c r="S8">
-        <v>0.01846406076469349</v>
+        <v>0.01136193045034965</v>
       </c>
       <c r="T8">
-        <v>0.01341214258686019</v>
+        <v>0.00804957905100322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H9">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I9">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J9">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.56641266666667</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N9">
-        <v>40.699238</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O9">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="P9">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
       <c r="Q9">
-        <v>2.833340763295778</v>
+        <v>2.380267801604666</v>
       </c>
       <c r="R9">
-        <v>25.500066869662</v>
+        <v>21.422410214442</v>
       </c>
       <c r="S9">
-        <v>0.009428279525154615</v>
+        <v>0.007411459161865673</v>
       </c>
       <c r="T9">
-        <v>0.01027293759631271</v>
+        <v>0.007876187061796866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H10">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I10">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J10">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.790493</v>
+        <v>49.80229833333333</v>
       </c>
       <c r="N10">
-        <v>119.371479</v>
+        <v>149.406895</v>
       </c>
       <c r="O10">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="P10">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
       <c r="Q10">
-        <v>8.310231199552334</v>
+        <v>8.737962649478334</v>
       </c>
       <c r="R10">
-        <v>74.792080795971</v>
+        <v>78.641663845305</v>
       </c>
       <c r="S10">
-        <v>0.02765328607241059</v>
+        <v>0.02720746518137889</v>
       </c>
       <c r="T10">
-        <v>0.03013068093674268</v>
+        <v>0.02891348121412599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H11">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I11">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J11">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.470196</v>
+        <v>9.34483</v>
       </c>
       <c r="N11">
-        <v>20.940392</v>
+        <v>18.68966</v>
       </c>
       <c r="O11">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="P11">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
       <c r="Q11">
-        <v>2.186696944534667</v>
+        <v>1.63957845799</v>
       </c>
       <c r="R11">
-        <v>13.120181667208</v>
+        <v>9.837470747940001</v>
       </c>
       <c r="S11">
-        <v>0.00727649504674921</v>
+        <v>0.005105168744405771</v>
       </c>
       <c r="T11">
-        <v>0.005285586434279825</v>
+        <v>0.003616855388825275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H12">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I12">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J12">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.009171</v>
+        <v>37.76134866666666</v>
       </c>
       <c r="N12">
-        <v>54.02751300000001</v>
+        <v>113.284046</v>
       </c>
       <c r="O12">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="P12">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
       <c r="Q12">
-        <v>3.761209360293001</v>
+        <v>6.625341907612666</v>
       </c>
       <c r="R12">
-        <v>33.85088424263701</v>
+        <v>59.628077168514</v>
       </c>
       <c r="S12">
-        <v>0.01251587301494256</v>
+        <v>0.02062938084049417</v>
       </c>
       <c r="T12">
-        <v>0.01363714154876742</v>
+        <v>0.02192292488162065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2088496666666667</v>
+        <v>0.175453</v>
       </c>
       <c r="H13">
-        <v>0.626549</v>
+        <v>0.526359</v>
       </c>
       <c r="I13">
-        <v>0.1043543072140412</v>
+        <v>0.0930278797853264</v>
       </c>
       <c r="J13">
-        <v>0.1043543072140412</v>
+        <v>0.09302787978532641</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.75176099999999</v>
+        <v>39.011729</v>
       </c>
       <c r="N13">
-        <v>125.255283</v>
+        <v>117.035187</v>
       </c>
       <c r="O13">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="P13">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
       <c r="Q13">
-        <v>8.719841367596333</v>
+        <v>6.844724888237001</v>
       </c>
       <c r="R13">
-        <v>78.47857230836699</v>
+        <v>61.60252399413301</v>
       </c>
       <c r="S13">
-        <v>0.02901631279009073</v>
+        <v>0.02131247540683225</v>
       </c>
       <c r="T13">
-        <v>0.03161581811107836</v>
+        <v>0.0226488521879544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H14">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I14">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J14">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.568057</v>
+        <v>20.79761</v>
       </c>
       <c r="N14">
-        <v>53.136114</v>
+        <v>41.59522</v>
       </c>
       <c r="O14">
-        <v>0.1769362593421452</v>
+        <v>0.1221346813081061</v>
       </c>
       <c r="P14">
-        <v>0.1285250503302229</v>
+        <v>0.08652867365760288</v>
       </c>
       <c r="Q14">
-        <v>2.775361226353</v>
+        <v>0.4686394786666666</v>
       </c>
       <c r="R14">
-        <v>16.652167358118</v>
+        <v>2.811836872</v>
       </c>
       <c r="S14">
-        <v>0.009235345696609519</v>
+        <v>0.001459206546185467</v>
       </c>
       <c r="T14">
-        <v>0.006708479510570366</v>
+        <v>0.001033803058079785</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H15">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I15">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J15">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.56641266666667</v>
+        <v>13.56641266666666</v>
       </c>
       <c r="N15">
-        <v>40.699238</v>
+        <v>40.69923799999999</v>
       </c>
       <c r="O15">
-        <v>0.09034873381715107</v>
+        <v>0.0796692258166966</v>
       </c>
       <c r="P15">
-        <v>0.09844287093240803</v>
+        <v>0.08466480242237233</v>
       </c>
       <c r="Q15">
-        <v>1.417179122122889</v>
+        <v>0.3056964987555555</v>
       </c>
       <c r="R15">
-        <v>12.754612099106</v>
+        <v>2.751268488799999</v>
       </c>
       <c r="S15">
-        <v>0.004715832657221748</v>
+        <v>0.0009518496678922931</v>
       </c>
       <c r="T15">
-        <v>0.005138313355373086</v>
+        <v>0.001011534419241369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H16">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I16">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J16">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>39.790493</v>
+        <v>49.80229833333333</v>
       </c>
       <c r="N16">
-        <v>119.371479</v>
+        <v>149.406895</v>
       </c>
       <c r="O16">
-        <v>0.2649941991919023</v>
+        <v>0.2924657129041698</v>
       </c>
       <c r="P16">
-        <v>0.2887344254506105</v>
+        <v>0.3108044736787241</v>
       </c>
       <c r="Q16">
-        <v>4.156607743263666</v>
+        <v>1.122211789111111</v>
       </c>
       <c r="R16">
-        <v>37.409469689373</v>
+        <v>10.099906102</v>
       </c>
       <c r="S16">
-        <v>0.01383160832173467</v>
+        <v>0.003494239950796345</v>
       </c>
       <c r="T16">
-        <v>0.01507075058251306</v>
+        <v>0.003713342661709816</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H17">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I17">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J17">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.470196</v>
+        <v>9.34483</v>
       </c>
       <c r="N17">
-        <v>20.940392</v>
+        <v>18.68966</v>
       </c>
       <c r="O17">
-        <v>0.06972874662302521</v>
+        <v>0.05487783615177078</v>
       </c>
       <c r="P17">
-        <v>0.05065039072549785</v>
+        <v>0.03887926283143963</v>
       </c>
       <c r="Q17">
-        <v>1.093741104617333</v>
+        <v>0.2105701693333333</v>
       </c>
       <c r="R17">
-        <v>6.562446627703999</v>
+        <v>1.263421016</v>
       </c>
       <c r="S17">
-        <v>0.003639554054376584</v>
+        <v>0.0006556540443344374</v>
       </c>
       <c r="T17">
-        <v>0.002643742270564076</v>
+        <v>0.0004645107698065172</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H18">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I18">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J18">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.009171</v>
+        <v>37.76134866666666</v>
       </c>
       <c r="N18">
-        <v>54.02751300000001</v>
+        <v>113.284046</v>
       </c>
       <c r="O18">
-        <v>0.1199363337180826</v>
+        <v>0.2217548211149075</v>
       </c>
       <c r="P18">
-        <v>0.1306811564643544</v>
+        <v>0.2356597283761661</v>
       </c>
       <c r="Q18">
-        <v>1.881280024059</v>
+        <v>0.8508890566222221</v>
       </c>
       <c r="R18">
-        <v>16.931520216531</v>
+        <v>7.658001509599998</v>
       </c>
       <c r="S18">
-        <v>0.006260183794936715</v>
+        <v>0.00264942015775812</v>
       </c>
       <c r="T18">
-        <v>0.006821019391210545</v>
+        <v>0.002815549315196579</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1044623333333333</v>
+        <v>0.02253333333333333</v>
       </c>
       <c r="H19">
-        <v>0.313387</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="I19">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="J19">
-        <v>0.05219589094370388</v>
+        <v>0.01194751998823629</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.75176099999999</v>
+        <v>39.011729</v>
       </c>
       <c r="N19">
-        <v>125.255283</v>
+        <v>117.035187</v>
       </c>
       <c r="O19">
-        <v>0.2780557273076937</v>
+        <v>0.2290977227043493</v>
       </c>
       <c r="P19">
-        <v>0.3029661060969063</v>
+        <v>0.2434630590336949</v>
       </c>
       <c r="Q19">
-        <v>4.361486374835666</v>
+        <v>0.8790642934666667</v>
       </c>
       <c r="R19">
-        <v>39.25337737352099</v>
+        <v>7.911578641199999</v>
       </c>
       <c r="S19">
-        <v>0.01451336641882465</v>
+        <v>0.002737149621269628</v>
       </c>
       <c r="T19">
-        <v>0.01581358583347274</v>
+        <v>0.002908779764202221</v>
       </c>
     </row>
   </sheetData>
